--- a/example/files/demo3.xlsx
+++ b/example/files/demo3.xlsx
@@ -8,10 +8,13 @@
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="测试" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="hahahaha" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'测试'!$A1:$G20</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'测试'!$A:$C,'测试'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'hahahaha'!$A1:$G20</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'hahahaha'!$A:$C,'hahahaha'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -665,157 +668,190 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="7" fitToHeight="5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>589846736973824</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>589846649221120</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>589846437097472</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>589846063632384</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>589845839679488</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>589845693845504</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>589845615718400</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>589845128892416</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>589845093928960</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>589844802932736</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/example/files/demo3.xlsx
+++ b/example/files/demo3.xlsx
@@ -8,13 +8,13 @@
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="测试" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="hahahaha" state="visible" r:id="rId5"/>
+    <sheet sheetId="2" name="复杂表格写入" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'测试'!$A1:$G20</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'测试'!$A:$C,'测试'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'hahahaha'!$A1:$G20</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'hahahaha'!$A:$C,'hahahaha'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'复杂表格写入'!$A1:$G20</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'复杂表格写入'!$A:$C,'复杂表格写入'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -680,182 +680,7 @@
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>589846736973824</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>589846649221120</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>589846437097472</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>589846063632384</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>589845839679488</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>589845693845504</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>589845615718400</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>589845128892416</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>589845093928960</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>589844802932736</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="7" fitToHeight="5"/>
 </worksheet>

--- a/example/files/demo3.xlsx
+++ b/example/files/demo3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>主键</t>
   </si>
@@ -72,6 +72,30 @@
   </si>
   <si>
     <t>杨俊</t>
+  </si>
+  <si>
+    <t>基本信息</t>
+  </si>
+  <si>
+    <t>重要信息</t>
+  </si>
+  <si>
+    <t>项目部编码</t>
+  </si>
+  <si>
+    <t>项目部名称</t>
+  </si>
+  <si>
+    <t>生产信息</t>
+  </si>
+  <si>
+    <t>车方量</t>
+  </si>
+  <si>
+    <t>运单方量</t>
+  </si>
+  <si>
+    <t>lyy测试项目部</t>
   </si>
 </sst>
 </file>
@@ -90,13 +114,13 @@
       <b/>
       <color rgb="FFFFFFFF"/>
       <family val="4"/>
-      <sz val="12"/>
+      <sz val="10"/>
       <name val="微软雅黑"/>
     </font>
     <font>
       <color rgb="FF000000"/>
       <family val="4"/>
-      <sz val="12"/>
+      <sz val="10"/>
       <name val="微软雅黑"/>
     </font>
   </fonts>
@@ -680,7 +704,519 @@
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>589846736973824</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>589846649221120</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>589846437097472</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>589846063632384</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>589845839679488</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>589845693845504</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>589845615718400</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>589845128892416</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>589845093928960</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>589846828634112</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>586892929036800</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="2">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>589846736973824</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3">
+        <v>586892929036800</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="3">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3">
+        <v>12</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>589846649221120</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2">
+        <v>586892929036800</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>589846437097472</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3">
+        <v>586892929036800</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="3">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3">
+        <v>12</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>589846063632384</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>586892929036800</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="2">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2">
+        <v>12</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>589845839679488</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3">
+        <v>586892929036800</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>589845693845504</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2">
+        <v>586892929036800</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="2">
+        <v>6</v>
+      </c>
+      <c r="G24" s="2">
+        <v>6</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>589845615718400</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3">
+        <v>586892929036800</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="3">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3">
+        <v>12</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>589845128892416</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2">
+        <v>586892929036800</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="2">
+        <v>7</v>
+      </c>
+      <c r="G26" s="2">
+        <v>7</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>589845093928960</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="3">
+        <v>586892929036800</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="3">
+        <v>6</v>
+      </c>
+      <c r="G27" s="3">
+        <v>6</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>589844802932736</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2">
+        <v>586892929036800</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="2">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2">
+        <v>10</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:H17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="7" fitToHeight="5"/>
 </worksheet>

--- a/example/files/demo3.xlsx
+++ b/example/files/demo3.xlsx
@@ -9,19 +9,14 @@
   <sheets>
     <sheet sheetId="1" name="测试" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="复杂表格写入" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="测试富文本" state="visible" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'测试'!$A1:$G20</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'测试'!$A:$C,'测试'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'复杂表格写入'!$A1:$G20</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'复杂表格写入'!$A:$C,'复杂表格写入'!$1:$3</definedName>
-  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>主键</t>
   </si>
@@ -96,6 +91,87 @@
   </si>
   <si>
     <t>lyy测试项目部</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="0"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">This is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <color theme="0"/>
+        <scheme val="minor"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF6600"/>
+        <scheme val="minor"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>colorful</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> text </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFCCFFCC"/>
+        <scheme val="minor"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>with</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> in-cell </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color theme="1"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>format</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -694,7 +770,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="7" fitToHeight="5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
@@ -713,511 +789,375 @@
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>589846828634112</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D4" s="2">
+        <v>586892929036800</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>589846736973824</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D5" s="3">
+        <v>586892929036800</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>589846649221120</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D6" s="2">
+        <v>586892929036800</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>589846437097472</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D7" s="3">
+        <v>586892929036800</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>589846063632384</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D8" s="2">
+        <v>586892929036800</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>589845839679488</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D9" s="3">
+        <v>586892929036800</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>589845693845504</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D10" s="2">
+        <v>586892929036800</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>589845615718400</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D11" s="3">
+        <v>586892929036800</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3">
+        <v>12</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>589845128892416</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D12" s="2">
+        <v>586892929036800</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2">
+        <v>7</v>
+      </c>
+      <c r="G12" s="2">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>589845093928960</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D13" s="3">
+        <v>586892929036800</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>589846828634112</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>589844802932736</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2">
         <v>586892929036800</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F14" s="2">
         <v>10</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G14" s="2">
         <v>10</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>589846736973824</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3">
-        <v>586892929036800</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="3">
-        <v>12</v>
-      </c>
-      <c r="G19" s="3">
-        <v>12</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>589846649221120</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2">
-        <v>586892929036800</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="2">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2">
-        <v>5</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>589846437097472</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="3">
-        <v>586892929036800</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="3">
-        <v>12</v>
-      </c>
-      <c r="G21" s="3">
-        <v>12</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>589846063632384</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="2">
-        <v>586892929036800</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="2">
-        <v>12</v>
-      </c>
-      <c r="G22" s="2">
-        <v>12</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>589845839679488</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="3">
-        <v>586892929036800</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>589845693845504</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2">
-        <v>586892929036800</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="2">
-        <v>6</v>
-      </c>
-      <c r="G24" s="2">
-        <v>6</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>589845615718400</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="3">
-        <v>586892929036800</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="3">
-        <v>12</v>
-      </c>
-      <c r="G25" s="3">
-        <v>12</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>589845128892416</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2">
-        <v>586892929036800</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="2">
-        <v>7</v>
-      </c>
-      <c r="G26" s="2">
-        <v>7</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>589845093928960</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="3">
-        <v>586892929036800</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="3">
-        <v>6</v>
-      </c>
-      <c r="G27" s="3">
-        <v>6</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>589844802932736</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="2">
-        <v>586892929036800</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="2">
-        <v>10</v>
-      </c>
-      <c r="G28" s="2">
-        <v>10</v>
-      </c>
-      <c r="H28" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="7" fitToHeight="5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>